--- a/Instanciation.xlsx
+++ b/Instanciation.xlsx
@@ -5,175 +5,170 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Feuil2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playlist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Season</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day Part Segment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listened offline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream Duration (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Paused (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stream count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total song duration (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Listening Duration (s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ford Ferguson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Coltrane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giant Steps (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autumn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ed Sheeran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape of You</t>
-  </si>
-  <si>
-    <t xml:space="preserve">÷ (Deluxe)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evening</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Didier Drogba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Williams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hedwig's Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Potter and The Sorcerer's Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of subscription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price Monthly (€)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Begin of Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discover Promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NULL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma Sting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afternoon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arya Stark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free</t>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Playlist</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Day Part Segment</t>
+  </si>
+  <si>
+    <t>Listened offline</t>
+  </si>
+  <si>
+    <t>Stream Duration (s)</t>
+  </si>
+  <si>
+    <t>Time Paused (s)</t>
+  </si>
+  <si>
+    <t>Stream count</t>
+  </si>
+  <si>
+    <t>Total song duration (s)</t>
+  </si>
+  <si>
+    <t>Total Listening Duration (s)</t>
+  </si>
+  <si>
+    <t>Ford Ferguson</t>
+  </si>
+  <si>
+    <t>John Coltrane</t>
+  </si>
+  <si>
+    <t>Naima</t>
+  </si>
+  <si>
+    <t>Giant Steps (Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Mario Price</t>
+  </si>
+  <si>
+    <t>Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Shape of You</t>
+  </si>
+  <si>
+    <t>÷ (Deluxe)</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Evening</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Didier Drogba</t>
+  </si>
+  <si>
+    <t>John Williams</t>
+  </si>
+  <si>
+    <t>Hedwig's Theme</t>
+  </si>
+  <si>
+    <t>Harry Potter and The Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Type of subscription</t>
+  </si>
+  <si>
+    <t>Promotion Name</t>
+  </si>
+  <si>
+    <t>Price Monthly (€)</t>
+  </si>
+  <si>
+    <t>Begin of Premium</t>
+  </si>
+  <si>
+    <t>End of Premium</t>
+  </si>
+  <si>
+    <t>Cancel Date</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Discover Promotion</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Emma Sting</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>NON</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Free</t>
   </si>
 </sst>
 </file>
@@ -181,12 +176,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -221,6 +216,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -287,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -316,11 +325,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,26 +416,26 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36842105263158"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.82591093117409"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.84615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5060728744939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.82591093117409"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.15384615384615"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.23481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.96356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.4251012145749"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.63967611336032"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.84615384615385"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.63967611336032"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,24 +642,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.015306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.26020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.43367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.05612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.530612244898"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.07692307692308"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.0202429149798"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.26315789473684"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0769230769231"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.4331983805668"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61133603238866"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.05668016194332"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="11.5344129554656"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4817813765182"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3886639676113"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="50.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -706,10 +719,10 @@
       <c r="H3" s="7" t="n">
         <v>43113</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="8" t="n">
         <v>43203</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -735,13 +748,13 @@
       <c r="G4" s="3" t="n">
         <v>9.99</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="8" t="n">
         <v>42195</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="8" t="n">
         <v>43200</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -767,16 +780,17 @@
       <c r="G5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>43018</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
